--- a/stock_historical_data/60m/ORIANA-SM.NS.xlsx
+++ b/stock_historical_data/60m/ORIANA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1718"/>
+  <dimension ref="A1:Q1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90832,7 +90832,9 @@
       <c r="P1705" t="n">
         <v>0</v>
       </c>
-      <c r="Q1705" t="inlineStr"/>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -90883,7 +90885,9 @@
       <c r="P1706" t="n">
         <v>0</v>
       </c>
-      <c r="Q1706" t="inlineStr"/>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -90934,7 +90938,9 @@
       <c r="P1707" t="n">
         <v>0</v>
       </c>
-      <c r="Q1707" t="inlineStr"/>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -90985,7 +90991,9 @@
       <c r="P1708" t="n">
         <v>0</v>
       </c>
-      <c r="Q1708" t="inlineStr"/>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -91036,7 +91044,9 @@
       <c r="P1709" t="n">
         <v>0</v>
       </c>
-      <c r="Q1709" t="inlineStr"/>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -91087,7 +91097,9 @@
       <c r="P1710" t="n">
         <v>0</v>
       </c>
-      <c r="Q1710" t="inlineStr"/>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -91138,7 +91150,9 @@
       <c r="P1711" t="n">
         <v>0</v>
       </c>
-      <c r="Q1711" t="inlineStr"/>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -91189,7 +91203,9 @@
       <c r="P1712" t="n">
         <v>0</v>
       </c>
-      <c r="Q1712" t="inlineStr"/>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -91240,7 +91256,9 @@
       <c r="P1713" t="n">
         <v>0</v>
       </c>
-      <c r="Q1713" t="inlineStr"/>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -91291,7 +91309,9 @@
       <c r="P1714" t="n">
         <v>0</v>
       </c>
-      <c r="Q1714" t="inlineStr"/>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -91342,7 +91362,9 @@
       <c r="P1715" t="n">
         <v>0</v>
       </c>
-      <c r="Q1715" t="inlineStr"/>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -91393,7 +91415,9 @@
       <c r="P1716" t="n">
         <v>0</v>
       </c>
-      <c r="Q1716" t="inlineStr"/>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -91444,7 +91468,9 @@
       <c r="P1717" t="n">
         <v>0</v>
       </c>
-      <c r="Q1717" t="inlineStr"/>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -91495,7 +91521,366 @@
       <c r="P1718" t="n">
         <v>0</v>
       </c>
-      <c r="Q1718" t="inlineStr"/>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>1668.800048828125</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>1668.800048828125</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>1522</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>1528.699951171875</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>1525.099975585938</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>1526.5</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>1515.599975585938</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>1515.599975585938</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>47325</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>1515.599975585938</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>1539.900024414062</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>1515.599975585938</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>1529.800048828125</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>25350</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>1527</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>1578.949951171875</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>1525</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>1547.949951171875</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>12150</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>1549.949951171875</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>1559.949951171875</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>1516</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>1516.099975585938</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>16650</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>1519.300048828125</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>1516.300048828125</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>1540</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>13350</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>1540</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>1524.25</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>1532.849975585938</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>10350</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ORIANA-SM.NS.xlsx
+++ b/stock_historical_data/60m/ORIANA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1725"/>
+  <dimension ref="A1:Q1739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91574,7 +91574,9 @@
       <c r="P1719" t="n">
         <v>0</v>
       </c>
-      <c r="Q1719" t="inlineStr"/>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -91625,7 +91627,9 @@
       <c r="P1720" t="n">
         <v>0</v>
       </c>
-      <c r="Q1720" t="inlineStr"/>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -91676,7 +91680,9 @@
       <c r="P1721" t="n">
         <v>0</v>
       </c>
-      <c r="Q1721" t="inlineStr"/>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -91727,7 +91733,9 @@
       <c r="P1722" t="n">
         <v>0</v>
       </c>
-      <c r="Q1722" t="inlineStr"/>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -91778,7 +91786,9 @@
       <c r="P1723" t="n">
         <v>0</v>
       </c>
-      <c r="Q1723" t="inlineStr"/>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -91829,7 +91839,9 @@
       <c r="P1724" t="n">
         <v>0</v>
       </c>
-      <c r="Q1724" t="inlineStr"/>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -91880,7 +91892,723 @@
       <c r="P1725" t="n">
         <v>0</v>
       </c>
-      <c r="Q1725" t="inlineStr"/>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>1552.199951171875</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>1609.449951171875</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>1538</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>1566.050048828125</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>1566.050048828125</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>1512</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>21750</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>1543.75</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>17400</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>1543.900024414062</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>1566.5</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>1543</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>1566.5</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>20400</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>1566.199951171875</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>1571</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>1571</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>16575</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>1571</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>1573.5</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>1553.099975585938</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>1559.650024414062</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>14175</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>1560</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>1548</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>1548</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>1571</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>1620</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>1571</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>1617</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>1617.900024414062</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>1626</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>1615.050048828125</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>1618</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>1617</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>1627.5</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>1617</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>1625</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>15975</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>1627.5</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>1617</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>1627.449951171875</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>4125</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>1627.5</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>1633.550048828125</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>1627.5</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>1633.550048828125</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>26550</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>1633.550048828125</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>1633.550048828125</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>1583.099975585938</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>1615.900024414062</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>40950</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>1613</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>1633.550048828125</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>1604.050048828125</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>1627.050048828125</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>9075</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ORIANA-SM.NS.xlsx
+++ b/stock_historical_data/60m/ORIANA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1739"/>
+  <dimension ref="A1:Q1753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91945,7 +91945,9 @@
       <c r="P1726" t="n">
         <v>0</v>
       </c>
-      <c r="Q1726" t="inlineStr"/>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -91996,7 +91998,9 @@
       <c r="P1727" t="n">
         <v>0</v>
       </c>
-      <c r="Q1727" t="inlineStr"/>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -92047,7 +92051,9 @@
       <c r="P1728" t="n">
         <v>0</v>
       </c>
-      <c r="Q1728" t="inlineStr"/>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -92098,7 +92104,9 @@
       <c r="P1729" t="n">
         <v>0</v>
       </c>
-      <c r="Q1729" t="inlineStr"/>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -92149,7 +92157,9 @@
       <c r="P1730" t="n">
         <v>0</v>
       </c>
-      <c r="Q1730" t="inlineStr"/>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -92200,7 +92210,9 @@
       <c r="P1731" t="n">
         <v>0</v>
       </c>
-      <c r="Q1731" t="inlineStr"/>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -92251,7 +92263,9 @@
       <c r="P1732" t="n">
         <v>0</v>
       </c>
-      <c r="Q1732" t="inlineStr"/>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -92302,7 +92316,9 @@
       <c r="P1733" t="n">
         <v>0</v>
       </c>
-      <c r="Q1733" t="inlineStr"/>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -92353,7 +92369,9 @@
       <c r="P1734" t="n">
         <v>0</v>
       </c>
-      <c r="Q1734" t="inlineStr"/>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -92404,7 +92422,9 @@
       <c r="P1735" t="n">
         <v>0</v>
       </c>
-      <c r="Q1735" t="inlineStr"/>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -92455,7 +92475,9 @@
       <c r="P1736" t="n">
         <v>0</v>
       </c>
-      <c r="Q1736" t="inlineStr"/>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -92506,7 +92528,9 @@
       <c r="P1737" t="n">
         <v>0</v>
       </c>
-      <c r="Q1737" t="inlineStr"/>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -92557,7 +92581,9 @@
       <c r="P1738" t="n">
         <v>0</v>
       </c>
-      <c r="Q1738" t="inlineStr"/>
+      <c r="Q1738" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -92608,7 +92634,723 @@
       <c r="P1739" t="n">
         <v>0</v>
       </c>
-      <c r="Q1739" t="inlineStr"/>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>1652.449951171875</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>1697</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>1651.5</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>1669.5</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>9375</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>1668.650024414062</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>1701</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>1666</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>1695</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>10425</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>1695</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>1707</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>1691</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>1696.5</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>6450</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>1671</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>4125</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>1679.900024414062</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>1638.5</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>1640</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>9450</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>1648</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>1632.25</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>3675</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>1635.699951171875</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>1667.900024414062</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>1635.699951171875</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>1652</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>1657</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>1707.949951171875</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>1653</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>1690</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>7950</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>1695.849975585938</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>1695.849975585938</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>1719</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>8175</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>1718</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>1719</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>1705</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>1705.400024414062</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>5250</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>1712</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>1706</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>1711.900024414062</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>3825</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>1707.099975585938</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>1712</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>1699.050048828125</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>1712</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>6525</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>1712</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>1712</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>1707.650024414062</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>6825</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ORIANA-SM.NS.xlsx
+++ b/stock_historical_data/60m/ORIANA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1753"/>
+  <dimension ref="A1:Q1767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92687,7 +92687,9 @@
       <c r="P1740" t="n">
         <v>0</v>
       </c>
-      <c r="Q1740" t="inlineStr"/>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -92738,7 +92740,9 @@
       <c r="P1741" t="n">
         <v>0</v>
       </c>
-      <c r="Q1741" t="inlineStr"/>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -92789,7 +92793,9 @@
       <c r="P1742" t="n">
         <v>0</v>
       </c>
-      <c r="Q1742" t="inlineStr"/>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -92840,7 +92846,9 @@
       <c r="P1743" t="n">
         <v>0</v>
       </c>
-      <c r="Q1743" t="inlineStr"/>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -92891,7 +92899,9 @@
       <c r="P1744" t="n">
         <v>0</v>
       </c>
-      <c r="Q1744" t="inlineStr"/>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -92942,7 +92952,9 @@
       <c r="P1745" t="n">
         <v>0</v>
       </c>
-      <c r="Q1745" t="inlineStr"/>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -92993,7 +93005,9 @@
       <c r="P1746" t="n">
         <v>0</v>
       </c>
-      <c r="Q1746" t="inlineStr"/>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -93044,7 +93058,9 @@
       <c r="P1747" t="n">
         <v>0</v>
       </c>
-      <c r="Q1747" t="inlineStr"/>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -93095,7 +93111,9 @@
       <c r="P1748" t="n">
         <v>0</v>
       </c>
-      <c r="Q1748" t="inlineStr"/>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -93138,7 +93156,7 @@
         <v>5</v>
       </c>
       <c r="N1749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1749" t="n">
         <v>0</v>
@@ -93146,7 +93164,9 @@
       <c r="P1749" t="n">
         <v>0</v>
       </c>
-      <c r="Q1749" t="inlineStr"/>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -93197,7 +93217,9 @@
       <c r="P1750" t="n">
         <v>0</v>
       </c>
-      <c r="Q1750" t="inlineStr"/>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -93248,7 +93270,9 @@
       <c r="P1751" t="n">
         <v>0</v>
       </c>
-      <c r="Q1751" t="inlineStr"/>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -93299,7 +93323,9 @@
       <c r="P1752" t="n">
         <v>0</v>
       </c>
-      <c r="Q1752" t="inlineStr"/>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -93350,7 +93376,723 @@
       <c r="P1753" t="n">
         <v>0</v>
       </c>
-      <c r="Q1753" t="inlineStr"/>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>1629</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>1575.25</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>1585</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>1582.75</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>1582</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>1583</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>6900</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>1582</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>1585</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>1576.150024414062</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>7575</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45691.51041666666</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>1575.25</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>1575.25</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>8400</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>13800</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45691.59375</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>375</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45692.38541666666</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>1599.800048828125</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>1620.050048828125</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>1569.949951171875</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>1580</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>11775</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45692.46875</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>1589.550048828125</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>1530.050048828125</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>1544.949951171875</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>6450</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45692.51041666666</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>1544</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>1566.699951171875</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>1566.699951171875</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>3900</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45692.55208333334</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>1571</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>1574.900024414062</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>1557</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>1565</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>2925</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>1558.050048828125</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>1546</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>1558.900024414062</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>7425</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>1558.949951171875</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>1545</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>1556</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>4950</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ORIANA-SM.NS.xlsx
+++ b/stock_historical_data/60m/ORIANA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1767"/>
+  <dimension ref="A1:Q1788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93429,7 +93429,9 @@
       <c r="P1754" t="n">
         <v>0</v>
       </c>
-      <c r="Q1754" t="inlineStr"/>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -93480,7 +93482,9 @@
       <c r="P1755" t="n">
         <v>0</v>
       </c>
-      <c r="Q1755" t="inlineStr"/>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -93531,7 +93535,9 @@
       <c r="P1756" t="n">
         <v>0</v>
       </c>
-      <c r="Q1756" t="inlineStr"/>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -93582,7 +93588,9 @@
       <c r="P1757" t="n">
         <v>0</v>
       </c>
-      <c r="Q1757" t="inlineStr"/>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -93633,7 +93641,9 @@
       <c r="P1758" t="n">
         <v>0</v>
       </c>
-      <c r="Q1758" t="inlineStr"/>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -93684,7 +93694,9 @@
       <c r="P1759" t="n">
         <v>0</v>
       </c>
-      <c r="Q1759" t="inlineStr"/>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -93735,7 +93747,9 @@
       <c r="P1760" t="n">
         <v>2</v>
       </c>
-      <c r="Q1760" t="inlineStr"/>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -93786,7 +93800,9 @@
       <c r="P1761" t="n">
         <v>0</v>
       </c>
-      <c r="Q1761" t="inlineStr"/>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -93837,7 +93853,9 @@
       <c r="P1762" t="n">
         <v>0</v>
       </c>
-      <c r="Q1762" t="inlineStr"/>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -93880,7 +93898,7 @@
         <v>6</v>
       </c>
       <c r="N1763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1763" t="n">
         <v>0</v>
@@ -93888,7 +93906,9 @@
       <c r="P1763" t="n">
         <v>0</v>
       </c>
-      <c r="Q1763" t="inlineStr"/>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -93939,7 +93959,9 @@
       <c r="P1764" t="n">
         <v>0</v>
       </c>
-      <c r="Q1764" t="inlineStr"/>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -93990,7 +94012,9 @@
       <c r="P1765" t="n">
         <v>0</v>
       </c>
-      <c r="Q1765" t="inlineStr"/>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -94041,7 +94065,9 @@
       <c r="P1766" t="n">
         <v>0</v>
       </c>
-      <c r="Q1766" t="inlineStr"/>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -94092,7 +94118,1080 @@
       <c r="P1767" t="n">
         <v>0</v>
       </c>
-      <c r="Q1767" t="inlineStr"/>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>1568.5</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>1609.949951171875</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>1565</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>1594.25</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>1594.900024414062</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>1607</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>1586</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>1586</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>6300</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>1596.5</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>1596.5</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>1592.099975585938</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>3450</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>1593</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>1595.400024414062</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>1589.900024414062</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>1592</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>1592</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>1599.800048828125</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>1589</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>1594.949951171875</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>2925</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>1593</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>1597.949951171875</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>1597.300048828125</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>6075</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>1593</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>1595.699951171875</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>1585.050048828125</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>1591.300048828125</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>1609</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>1609</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>1570</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>1590</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>1593.949951171875</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>1604.449951171875</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>1584</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>1593.900024414062</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>6375</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>1596.949951171875</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>1596.949951171875</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>1576.150024414062</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>1592.050048828125</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>1592.050048828125</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>1586.050048828125</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>5775</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>1596.900024414062</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>1599.949951171875</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>1594.050048828125</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>1598</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>4650</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>1595.400024414062</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>1670.849975585938</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>1595.400024414062</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>1670.849975585938</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>17325</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>1670.849975585938</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>1670.849975585938</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>1665</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>1668.849975585938</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>5925</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>1682</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>1731.150024414062</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>1731.199951171875</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>1706</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>6450</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>1706</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>1706</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>1718</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>1717.449951171875</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>1711.5</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>1715</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>1715</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>1730.400024414062</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>1707.050048828125</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>1730</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>3450</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>1736</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>1710</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>1713.199951171875</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>1715.400024414062</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>1694</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>1694</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>2775</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ORIANA-SM.NS.xlsx
+++ b/stock_historical_data/60m/ORIANA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1788"/>
+  <dimension ref="A1:Q1802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94171,7 +94171,9 @@
       <c r="P1768" t="n">
         <v>0</v>
       </c>
-      <c r="Q1768" t="inlineStr"/>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -94222,7 +94224,9 @@
       <c r="P1769" t="n">
         <v>0</v>
       </c>
-      <c r="Q1769" t="inlineStr"/>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -94273,7 +94277,9 @@
       <c r="P1770" t="n">
         <v>0</v>
       </c>
-      <c r="Q1770" t="inlineStr"/>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -94324,7 +94330,9 @@
       <c r="P1771" t="n">
         <v>0</v>
       </c>
-      <c r="Q1771" t="inlineStr"/>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -94375,7 +94383,9 @@
       <c r="P1772" t="n">
         <v>0</v>
       </c>
-      <c r="Q1772" t="inlineStr"/>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -94426,7 +94436,9 @@
       <c r="P1773" t="n">
         <v>0</v>
       </c>
-      <c r="Q1773" t="inlineStr"/>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -94477,7 +94489,9 @@
       <c r="P1774" t="n">
         <v>0</v>
       </c>
-      <c r="Q1774" t="inlineStr"/>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -94528,7 +94542,9 @@
       <c r="P1775" t="n">
         <v>0</v>
       </c>
-      <c r="Q1775" t="inlineStr"/>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -94579,7 +94595,9 @@
       <c r="P1776" t="n">
         <v>0</v>
       </c>
-      <c r="Q1776" t="inlineStr"/>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -94630,7 +94648,9 @@
       <c r="P1777" t="n">
         <v>0</v>
       </c>
-      <c r="Q1777" t="inlineStr"/>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -94681,7 +94701,9 @@
       <c r="P1778" t="n">
         <v>0</v>
       </c>
-      <c r="Q1778" t="inlineStr"/>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -94732,7 +94754,9 @@
       <c r="P1779" t="n">
         <v>0</v>
       </c>
-      <c r="Q1779" t="inlineStr"/>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -94783,7 +94807,9 @@
       <c r="P1780" t="n">
         <v>0</v>
       </c>
-      <c r="Q1780" t="inlineStr"/>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -94834,7 +94860,9 @@
       <c r="P1781" t="n">
         <v>0</v>
       </c>
-      <c r="Q1781" t="inlineStr"/>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -94877,7 +94905,7 @@
         <v>6</v>
       </c>
       <c r="N1782" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1782" t="n">
         <v>0</v>
@@ -94885,7 +94913,9 @@
       <c r="P1782" t="n">
         <v>0</v>
       </c>
-      <c r="Q1782" t="inlineStr"/>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -94936,7 +94966,9 @@
       <c r="P1783" t="n">
         <v>0</v>
       </c>
-      <c r="Q1783" t="inlineStr"/>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -94987,7 +95019,9 @@
       <c r="P1784" t="n">
         <v>0</v>
       </c>
-      <c r="Q1784" t="inlineStr"/>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -95038,7 +95072,9 @@
       <c r="P1785" t="n">
         <v>0</v>
       </c>
-      <c r="Q1785" t="inlineStr"/>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -95089,7 +95125,9 @@
       <c r="P1786" t="n">
         <v>0</v>
       </c>
-      <c r="Q1786" t="inlineStr"/>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -95140,7 +95178,9 @@
       <c r="P1787" t="n">
         <v>0</v>
       </c>
-      <c r="Q1787" t="inlineStr"/>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -95191,7 +95231,723 @@
       <c r="P1788" t="n">
         <v>0</v>
       </c>
-      <c r="Q1788" t="inlineStr"/>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>1712</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>1719</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>1670</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>1670</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>1668</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>1675.949951171875</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>1652.050048828125</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>1659</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>5100</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>1658.199951171875</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>1652</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>4725</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>1650.050048828125</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>1636</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>9300</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>1638.5</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>1649.949951171875</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>1630</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>4425</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>1626</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>1639.949951171875</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>1625.400024414062</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>8550</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>1636.400024414062</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>1637</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>1630</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>1631.599975585938</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>825</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>1633</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>1637</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>6675</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>675</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>1550.050048828125</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ORIANA-SM.NS.xlsx
+++ b/stock_historical_data/60m/ORIANA-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1802"/>
+  <dimension ref="A1:Q1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95284,7 +95284,9 @@
       <c r="P1789" t="n">
         <v>0</v>
       </c>
-      <c r="Q1789" t="inlineStr"/>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -95335,7 +95337,9 @@
       <c r="P1790" t="n">
         <v>0</v>
       </c>
-      <c r="Q1790" t="inlineStr"/>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -95386,7 +95390,9 @@
       <c r="P1791" t="n">
         <v>0</v>
       </c>
-      <c r="Q1791" t="inlineStr"/>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -95437,7 +95443,9 @@
       <c r="P1792" t="n">
         <v>0</v>
       </c>
-      <c r="Q1792" t="inlineStr"/>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -95488,7 +95496,9 @@
       <c r="P1793" t="n">
         <v>2</v>
       </c>
-      <c r="Q1793" t="inlineStr"/>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -95539,7 +95549,9 @@
       <c r="P1794" t="n">
         <v>0</v>
       </c>
-      <c r="Q1794" t="inlineStr"/>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -95590,7 +95602,9 @@
       <c r="P1795" t="n">
         <v>0</v>
       </c>
-      <c r="Q1795" t="inlineStr"/>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -95641,7 +95655,9 @@
       <c r="P1796" t="n">
         <v>0</v>
       </c>
-      <c r="Q1796" t="inlineStr"/>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -95692,7 +95708,9 @@
       <c r="P1797" t="n">
         <v>0</v>
       </c>
-      <c r="Q1797" t="inlineStr"/>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -95743,7 +95761,9 @@
       <c r="P1798" t="n">
         <v>0</v>
       </c>
-      <c r="Q1798" t="inlineStr"/>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -95794,7 +95814,9 @@
       <c r="P1799" t="n">
         <v>0</v>
       </c>
-      <c r="Q1799" t="inlineStr"/>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -95845,7 +95867,9 @@
       <c r="P1800" t="n">
         <v>0</v>
       </c>
-      <c r="Q1800" t="inlineStr"/>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -95896,7 +95920,9 @@
       <c r="P1801" t="n">
         <v>0</v>
       </c>
-      <c r="Q1801" t="inlineStr"/>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -95947,7 +95973,723 @@
       <c r="P1802" t="n">
         <v>0</v>
       </c>
-      <c r="Q1802" t="inlineStr"/>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>1544.949951171875</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>1472.550048828125</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>1491</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>9300</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>1518.900024414062</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>1472.550048828125</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>1485</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>16575</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>1473.150024414062</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>1512</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>13875</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>1516.699951171875</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>1503.050048828125</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>1540</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>8325</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>1576.900024414062</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>1504.5</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>1510</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>10575</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>1505</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>1503</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>1524</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>5625</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>1524</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>1524</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>1480</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>1505.599975585938</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>7125</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>1539</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>1470</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>1524</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>1535.099975585938</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>1529.949951171875</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>3150</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>1533.900024414062</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>1520.150024414062</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>1525</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>1529.949951171875</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>1544.900024414062</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>1529.949951171875</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>1544.900024414062</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>2700</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>1538.5</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>1543.949951171875</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>1520.25</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>1531</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>1533</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>1515</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>1524</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>3375</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>1520.050048828125</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>1525.050048828125</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>1725</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
